--- a/Squads/F1/Monaco_Nantes_squad.xlsx
+++ b/Squads/F1/Monaco_Nantes_squad.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="283">
   <si>
     <t>Rk</t>
   </si>
@@ -90,184 +90,184 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>2607</t>
-  </si>
-  <si>
-    <t>914</t>
-  </si>
-  <si>
-    <t>2265</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>1443</t>
-  </si>
-  <si>
-    <t>2484</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>522</t>
-  </si>
-  <si>
-    <t>729</t>
-  </si>
-  <si>
-    <t>2271</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>1224</t>
-  </si>
-  <si>
-    <t>1626</t>
-  </si>
-  <si>
-    <t>1656</t>
-  </si>
-  <si>
-    <t>1879</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>822</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>652</t>
-  </si>
-  <si>
-    <t>1534</t>
-  </si>
-  <si>
-    <t>1858</t>
-  </si>
-  <si>
-    <t>2152</t>
-  </si>
-  <si>
-    <t>512</t>
+    <t>2632</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>2288</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>1456</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>2294</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>1898</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t>1671</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>1666</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>1876</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>1324</t>
+  </si>
+  <si>
+    <t>1698</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>2652</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>441</t>
   </si>
   <si>
     <t>559</t>
   </si>
   <si>
-    <t>1185</t>
-  </si>
-  <si>
-    <t>1650</t>
-  </si>
-  <si>
-    <t>1681</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>1188</t>
-  </si>
-  <si>
-    <t>1312</t>
-  </si>
-  <si>
-    <t>2627</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>756</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>1254</t>
-  </si>
-  <si>
-    <t>1504</t>
-  </si>
-  <si>
-    <t>2253</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>639</t>
-  </si>
-  <si>
-    <t>863</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1452</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1658</t>
-  </si>
-  <si>
-    <t>1954</t>
-  </si>
-  <si>
-    <t>2262</t>
+    <t>763</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>1263</t>
+  </si>
+  <si>
+    <t>1518</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>1624</t>
+  </si>
+  <si>
+    <t>1673</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>2285</t>
   </si>
   <si>
     <t>Denis Zakaria</t>
@@ -288,6 +288,9 @@
     <t>Vanderson</t>
   </si>
   <si>
+    <t>Moussa Sissoko</t>
+  </si>
+  <si>
     <t>Maghnes Akliouche</t>
   </si>
   <si>
@@ -303,7 +306,7 @@
     <t>Jean-Kevin Duverne</t>
   </si>
   <si>
-    <t>Moussa Sissoko</t>
+    <t>Nicolas Pallois</t>
   </si>
   <si>
     <t>Mohamed Camara</t>
@@ -318,15 +321,15 @@
     <t>Florent Mollet</t>
   </si>
   <si>
-    <t>Nicolas Pallois</t>
-  </si>
-  <si>
     <t>Edan Diop</t>
   </si>
   <si>
     <t>Youssouf Fofana</t>
   </si>
   <si>
+    <t>Mostafa Mohamed</t>
+  </si>
+  <si>
     <t>Ronaël Pierre-Gabriel</t>
   </si>
   <si>
@@ -354,7 +357,7 @@
     <t>Abdoul Kader Bamba</t>
   </si>
   <si>
-    <t>Mostafa Mohamed</t>
+    <t>Alban Lafont</t>
   </si>
   <si>
     <t>Samuel Moutoussamy</t>
@@ -381,9 +384,6 @@
     <t>Tino Kadewere</t>
   </si>
   <si>
-    <t>Alban Lafont</t>
-  </si>
-  <si>
     <t>Nathan Zeze</t>
   </si>
   <si>
@@ -483,6 +483,9 @@
     <t>jp JPN</t>
   </si>
   <si>
+    <t>eg EGY</t>
+  </si>
+  <si>
     <t>sn SEN</t>
   </si>
   <si>
@@ -492,9 +495,6 @@
     <t>gh GHA</t>
   </si>
   <si>
-    <t>eg EGY</t>
-  </si>
-  <si>
     <t>cd COD</t>
   </si>
   <si>
@@ -561,184 +561,184 @@
     <t>fr Ligue 1</t>
   </si>
   <si>
-    <t>27-169</t>
-  </si>
-  <si>
-    <t>27-343</t>
-  </si>
-  <si>
-    <t>23-134</t>
-  </si>
-  <si>
-    <t>27-115</t>
-  </si>
-  <si>
-    <t>20-212</t>
+    <t>27-181</t>
+  </si>
+  <si>
+    <t>27-355</t>
+  </si>
+  <si>
+    <t>23-146</t>
+  </si>
+  <si>
+    <t>27-127</t>
+  </si>
+  <si>
+    <t>20-224</t>
+  </si>
+  <si>
+    <t>22-333</t>
+  </si>
+  <si>
+    <t>34-277</t>
+  </si>
+  <si>
+    <t>22-084</t>
+  </si>
+  <si>
+    <t>29-114</t>
+  </si>
+  <si>
+    <t>26-362</t>
+  </si>
+  <si>
+    <t>26-105</t>
+  </si>
+  <si>
+    <t>26-312</t>
+  </si>
+  <si>
+    <t>36-243</t>
+  </si>
+  <si>
+    <t>24-134</t>
+  </si>
+  <si>
+    <t>27-241</t>
+  </si>
+  <si>
+    <t>29-124</t>
+  </si>
+  <si>
+    <t>32-182</t>
+  </si>
+  <si>
+    <t>19-265</t>
+  </si>
+  <si>
+    <t>25-130</t>
+  </si>
+  <si>
+    <t>26-173</t>
+  </si>
+  <si>
+    <t>25-341</t>
+  </si>
+  <si>
+    <t>33-281</t>
+  </si>
+  <si>
+    <t>25-084</t>
+  </si>
+  <si>
+    <t>22-094</t>
+  </si>
+  <si>
+    <t>19-218</t>
+  </si>
+  <si>
+    <t>25-032</t>
+  </si>
+  <si>
+    <t>27-330</t>
+  </si>
+  <si>
+    <t>25-132</t>
+  </si>
+  <si>
+    <t>29-360</t>
+  </si>
+  <si>
+    <t>25-117</t>
+  </si>
+  <si>
+    <t>27-281</t>
   </si>
   <si>
     <t>22-321</t>
   </si>
   <si>
-    <t>22-072</t>
-  </si>
-  <si>
-    <t>29-102</t>
-  </si>
-  <si>
-    <t>26-350</t>
-  </si>
-  <si>
-    <t>26-093</t>
-  </si>
-  <si>
-    <t>26-300</t>
-  </si>
-  <si>
-    <t>34-265</t>
-  </si>
-  <si>
-    <t>24-122</t>
-  </si>
-  <si>
-    <t>27-229</t>
-  </si>
-  <si>
-    <t>29-112</t>
-  </si>
-  <si>
-    <t>32-170</t>
-  </si>
-  <si>
-    <t>36-231</t>
-  </si>
-  <si>
-    <t>19-253</t>
-  </si>
-  <si>
-    <t>25-118</t>
-  </si>
-  <si>
-    <t>25-329</t>
-  </si>
-  <si>
-    <t>33-269</t>
-  </si>
-  <si>
-    <t>25-072</t>
-  </si>
-  <si>
-    <t>22-082</t>
-  </si>
-  <si>
-    <t>19-206</t>
-  </si>
-  <si>
-    <t>25-020</t>
-  </si>
-  <si>
-    <t>27-318</t>
-  </si>
-  <si>
-    <t>25-120</t>
-  </si>
-  <si>
-    <t>29-348</t>
-  </si>
-  <si>
-    <t>26-161</t>
-  </si>
-  <si>
-    <t>27-269</t>
-  </si>
-  <si>
-    <t>22-309</t>
-  </si>
-  <si>
-    <t>24-173</t>
-  </si>
-  <si>
-    <t>21-040</t>
-  </si>
-  <si>
-    <t>21-159</t>
-  </si>
-  <si>
-    <t>26-089</t>
-  </si>
-  <si>
-    <t>27-317</t>
-  </si>
-  <si>
-    <t>28-123</t>
-  </si>
-  <si>
-    <t>25-105</t>
-  </si>
-  <si>
-    <t>18-324</t>
-  </si>
-  <si>
-    <t>19-081</t>
-  </si>
-  <si>
-    <t>23-114</t>
-  </si>
-  <si>
-    <t>19-319</t>
-  </si>
-  <si>
-    <t>20-016</t>
-  </si>
-  <si>
-    <t>27-083</t>
-  </si>
-  <si>
-    <t>24-264</t>
-  </si>
-  <si>
-    <t>26-035</t>
-  </si>
-  <si>
-    <t>30-001</t>
-  </si>
-  <si>
-    <t>26-281</t>
-  </si>
-  <si>
-    <t>23-214</t>
-  </si>
-  <si>
-    <t>19-315</t>
-  </si>
-  <si>
-    <t>21-108</t>
-  </si>
-  <si>
-    <t>23-174</t>
-  </si>
-  <si>
-    <t>25-081</t>
-  </si>
-  <si>
-    <t>21-042</t>
-  </si>
-  <si>
-    <t>21-093</t>
-  </si>
-  <si>
-    <t>21-357</t>
-  </si>
-  <si>
-    <t>18-049</t>
-  </si>
-  <si>
-    <t>19-029</t>
-  </si>
-  <si>
-    <t>35-349</t>
-  </si>
-  <si>
-    <t>28-300</t>
+    <t>24-185</t>
+  </si>
+  <si>
+    <t>21-052</t>
+  </si>
+  <si>
+    <t>21-171</t>
+  </si>
+  <si>
+    <t>26-101</t>
+  </si>
+  <si>
+    <t>27-329</t>
+  </si>
+  <si>
+    <t>28-135</t>
+  </si>
+  <si>
+    <t>18-336</t>
+  </si>
+  <si>
+    <t>19-093</t>
+  </si>
+  <si>
+    <t>23-126</t>
+  </si>
+  <si>
+    <t>19-331</t>
+  </si>
+  <si>
+    <t>20-028</t>
+  </si>
+  <si>
+    <t>27-095</t>
+  </si>
+  <si>
+    <t>24-276</t>
+  </si>
+  <si>
+    <t>26-047</t>
+  </si>
+  <si>
+    <t>30-013</t>
+  </si>
+  <si>
+    <t>26-293</t>
+  </si>
+  <si>
+    <t>23-226</t>
+  </si>
+  <si>
+    <t>19-327</t>
+  </si>
+  <si>
+    <t>21-120</t>
+  </si>
+  <si>
+    <t>23-186</t>
+  </si>
+  <si>
+    <t>25-093</t>
+  </si>
+  <si>
+    <t>21-054</t>
+  </si>
+  <si>
+    <t>21-105</t>
+  </si>
+  <si>
+    <t>22-003</t>
+  </si>
+  <si>
+    <t>18-061</t>
+  </si>
+  <si>
+    <t>19-041</t>
+  </si>
+  <si>
+    <t>35-361</t>
+  </si>
+  <si>
+    <t>28-312</t>
   </si>
   <si>
     <t>1996</t>
@@ -756,6 +756,9 @@
     <t>2001</t>
   </si>
   <si>
+    <t>1989</t>
+  </si>
+  <si>
     <t>2002</t>
   </si>
   <si>
@@ -765,15 +768,12 @@
     <t>1998</t>
   </si>
   <si>
-    <t>1989</t>
+    <t>1987</t>
   </si>
   <si>
     <t>1991</t>
   </si>
   <si>
-    <t>1987</t>
-  </si>
-  <si>
     <t>2004</t>
   </si>
   <si>
@@ -781,9 +781,6 @@
   </si>
   <si>
     <t>1990</t>
-  </si>
-  <si>
-    <t>1994</t>
   </si>
   <si>
     <t>2005</t>
@@ -998,7 +995,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>2750.0</v>
+        <v>2775.0</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
@@ -1078,7 +1075,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>971.0</v>
+        <v>978.0</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -1158,7 +1155,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>2389.0</v>
+        <v>2412.0</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -1182,10 +1179,10 @@
         <v>243</v>
       </c>
       <c r="J4" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L4" t="n">
         <v>1.0</v>
@@ -1194,10 +1191,10 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="P4" t="n">
         <v>2.0</v>
@@ -1206,10 +1203,10 @@
         <v>18.0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="S4" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="T4" t="n">
         <v>0.0</v>
@@ -1221,16 +1218,16 @@
         <v>1.0</v>
       </c>
       <c r="W4" t="n">
-        <v>190.0</v>
+        <v>198.0</v>
       </c>
       <c r="X4" t="n">
         <v>63.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>69.2</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="5">
@@ -1238,7 +1235,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>748.0</v>
+        <v>755.0</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
@@ -1318,7 +1315,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>1526.0</v>
+        <v>1539.0</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -1342,7 +1339,7 @@
         <v>245</v>
       </c>
       <c r="J6" t="n">
-        <v>13.9</v>
+        <v>14.0</v>
       </c>
       <c r="K6" t="n">
         <v>6.0</v>
@@ -1354,7 +1351,7 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="O6" t="n">
         <v>11.0</v>
@@ -1398,7 +1395,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>2616.0</v>
+        <v>2640.0</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -1478,7 +1475,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>55.0</v>
+        <v>2418.0</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -1487,10 +1484,10 @@
         <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G8" t="s">
         <v>181</v>
@@ -1502,10 +1499,10 @@
         <v>247</v>
       </c>
       <c r="J8" t="n">
-        <v>17.0</v>
+        <v>19.2</v>
       </c>
       <c r="K8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L8" t="n">
         <v>0.0</v>
@@ -1514,22 +1511,22 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>30.0</v>
+        <v>39.0</v>
       </c>
       <c r="O8" t="n">
-        <v>27.0</v>
+        <v>2.0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.0</v>
+        <v>18.0</v>
       </c>
       <c r="R8" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="S8" t="n">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
@@ -1541,16 +1538,16 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="X8" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.4</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="9">
@@ -1558,19 +1555,19 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>480.0</v>
+        <v>56.0</v>
       </c>
       <c r="C9" t="s">
         <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G9" t="s">
         <v>181</v>
@@ -1582,7 +1579,7 @@
         <v>248</v>
       </c>
       <c r="J9" t="n">
-        <v>27.4</v>
+        <v>17.9</v>
       </c>
       <c r="K9" t="n">
         <v>5.0</v>
@@ -1597,40 +1594,40 @@
         <v>33.0</v>
       </c>
       <c r="O9" t="n">
-        <v>18.0</v>
+        <v>31.0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.0</v>
+        <v>54.0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="S9" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="T9" t="n">
         <v>0.0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="V9" t="n">
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>138.0</v>
+        <v>110.0</v>
       </c>
       <c r="X9" t="n">
-        <v>51.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>32.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>61.4</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="10">
@@ -1638,16 +1635,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>520.0</v>
+        <v>485.0</v>
       </c>
       <c r="C10" t="s">
         <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
         <v>180</v>
@@ -1659,10 +1656,10 @@
         <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J10" t="n">
-        <v>28.1</v>
+        <v>27.4</v>
       </c>
       <c r="K10" t="n">
         <v>5.0</v>
@@ -1674,43 +1671,43 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>26.0</v>
+        <v>33.0</v>
       </c>
       <c r="O10" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="P10" t="n">
         <v>2.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.0</v>
+        <v>20.0</v>
       </c>
       <c r="R10" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="S10" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="V10" t="n">
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>161.0</v>
+        <v>138.0</v>
       </c>
       <c r="X10" t="n">
-        <v>12.0</v>
+        <v>51.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>40.0</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="11">
@@ -1718,16 +1715,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>553.0</v>
+        <v>525.0</v>
       </c>
       <c r="C11" t="s">
         <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F11" t="s">
         <v>180</v>
@@ -1739,10 +1736,10 @@
         <v>191</v>
       </c>
       <c r="I11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J11" t="n">
-        <v>20.3</v>
+        <v>28.8</v>
       </c>
       <c r="K11" t="n">
         <v>5.0</v>
@@ -1754,43 +1751,43 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="O11" t="n">
         <v>21.0</v>
       </c>
-      <c r="O11" t="n">
-        <v>24.0</v>
-      </c>
       <c r="P11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.0</v>
+        <v>29.0</v>
       </c>
       <c r="R11" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="V11" t="n">
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>94.0</v>
+        <v>165.0</v>
       </c>
       <c r="X11" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>34.1</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="12">
@@ -1798,13 +1795,13 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>772.0</v>
+        <v>558.0</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
         <v>173</v>
@@ -1819,10 +1816,10 @@
         <v>192</v>
       </c>
       <c r="I12" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="J12" t="n">
-        <v>14.8</v>
+        <v>21.2</v>
       </c>
       <c r="K12" t="n">
         <v>5.0</v>
@@ -1834,43 +1831,43 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="O12" t="n">
-        <v>16.0</v>
+        <v>25.0</v>
       </c>
       <c r="P12" t="n">
         <v>0.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
       <c r="S12" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V12" t="n">
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>79.0</v>
+        <v>96.0</v>
       </c>
       <c r="X12" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>50.0</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="13">
@@ -1878,16 +1875,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>2395.0</v>
+        <v>779.0</v>
       </c>
       <c r="C13" t="s">
         <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
         <v>180</v>
@@ -1899,10 +1896,10 @@
         <v>193</v>
       </c>
       <c r="I13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J13" t="n">
-        <v>18.2</v>
+        <v>14.8</v>
       </c>
       <c r="K13" t="n">
         <v>5.0</v>
@@ -1914,43 +1911,43 @@
         <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>37.0</v>
+        <v>29.0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="R13" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V13" t="n">
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>99.0</v>
+        <v>79.0</v>
       </c>
       <c r="X13" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>38.2</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="14">
@@ -1958,19 +1955,19 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>429.0</v>
+        <v>2002.0</v>
       </c>
       <c r="C14" t="s">
         <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G14" t="s">
         <v>181</v>
@@ -1979,13 +1976,13 @@
         <v>194</v>
       </c>
       <c r="I14" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="J14" t="n">
-        <v>10.5</v>
+        <v>17.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
@@ -1994,43 +1991,43 @@
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="O14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S14" t="n">
         <v>19.0</v>
       </c>
-      <c r="P14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>18.0</v>
       </c>
-      <c r="T14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.0</v>
-      </c>
       <c r="Z14" t="n">
-        <v>46.7</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="15">
@@ -2038,16 +2035,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>1298.0</v>
+        <v>433.0</v>
       </c>
       <c r="C15" t="s">
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
         <v>179</v>
@@ -2059,58 +2056,58 @@
         <v>195</v>
       </c>
       <c r="I15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J15" t="n">
-        <v>12.7</v>
+        <v>10.6</v>
       </c>
       <c r="K15" t="n">
         <v>4.0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="O15" t="n">
-        <v>3.0</v>
+        <v>19.0</v>
       </c>
       <c r="P15" t="n">
         <v>0.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="S15" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V15" t="n">
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>51.0</v>
+        <v>80.0</v>
       </c>
       <c r="X15" t="n">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>50.0</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="16">
@@ -2118,16 +2115,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>1725.0</v>
+        <v>1307.0</v>
       </c>
       <c r="C16" t="s">
         <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
         <v>179</v>
@@ -2139,58 +2136,58 @@
         <v>196</v>
       </c>
       <c r="I16" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J16" t="n">
-        <v>23.4</v>
+        <v>13.7</v>
       </c>
       <c r="K16" t="n">
         <v>4.0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N16" t="n">
-        <v>30.0</v>
+        <v>16.0</v>
       </c>
       <c r="O16" t="n">
-        <v>32.0</v>
+        <v>3.0</v>
       </c>
       <c r="P16" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.0</v>
+        <v>4.0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="T16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V16" t="n">
         <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>115.0</v>
+        <v>54.0</v>
       </c>
       <c r="X16" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>31.6</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="17">
@@ -2198,19 +2195,19 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>1756.0</v>
+        <v>1741.0</v>
       </c>
       <c r="C17" t="s">
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
         <v>181</v>
@@ -2219,10 +2216,10 @@
         <v>197</v>
       </c>
       <c r="I17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J17" t="n">
-        <v>22.3</v>
+        <v>23.4</v>
       </c>
       <c r="K17" t="n">
         <v>4.0</v>
@@ -2237,22 +2234,22 @@
         <v>30.0</v>
       </c>
       <c r="O17" t="n">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.0</v>
+        <v>32.0</v>
       </c>
       <c r="R17" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
@@ -2261,16 +2258,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>110.0</v>
+        <v>115.0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y17" t="n">
         <v>13.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>35.0</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="18">
@@ -2278,7 +2275,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>1983.0</v>
+        <v>1771.0</v>
       </c>
       <c r="C18" t="s">
         <v>101</v>
@@ -2287,7 +2284,7 @@
         <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
         <v>180</v>
@@ -2302,7 +2299,7 @@
         <v>252</v>
       </c>
       <c r="J18" t="n">
-        <v>16.4</v>
+        <v>22.8</v>
       </c>
       <c r="K18" t="n">
         <v>4.0</v>
@@ -2314,43 +2311,43 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>16.0</v>
+        <v>31.0</v>
       </c>
       <c r="O18" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="X18" t="n">
         <v>8.0</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>29.0</v>
-      </c>
       <c r="Y18" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>61.7</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="19">
@@ -2358,7 +2355,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>709.0</v>
+        <v>716.0</v>
       </c>
       <c r="C19" t="s">
         <v>102</v>
@@ -2438,7 +2435,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>873.0</v>
+        <v>880.0</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
@@ -2462,7 +2459,7 @@
         <v>254</v>
       </c>
       <c r="J20" t="n">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="K20" t="n">
         <v>3.0</v>
@@ -2477,7 +2474,7 @@
         <v>36.0</v>
       </c>
       <c r="O20" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="P20" t="n">
         <v>1.0</v>
@@ -2486,10 +2483,10 @@
         <v>14.0</v>
       </c>
       <c r="R20" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="S20" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
@@ -2501,7 +2498,7 @@
         <v>1.0</v>
       </c>
       <c r="W20" t="n">
-        <v>217.0</v>
+        <v>228.0</v>
       </c>
       <c r="X20" t="n">
         <v>17.0</v>
@@ -2518,16 +2515,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2084.0</v>
+        <v>1766.0</v>
       </c>
       <c r="C21" t="s">
         <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
         <v>180</v>
@@ -2539,58 +2536,58 @@
         <v>201</v>
       </c>
       <c r="I21" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J21" t="n">
-        <v>6.6</v>
+        <v>22.2</v>
       </c>
       <c r="K21" t="n">
         <v>3.0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M21" t="n">
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>4.0</v>
+        <v>34.0</v>
       </c>
       <c r="O21" t="n">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="S21" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V21" t="n">
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>22.0</v>
+        <v>54.0</v>
       </c>
       <c r="X21" t="n">
-        <v>9.0</v>
+        <v>72.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.0</v>
+        <v>66.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>64.3</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="22">
@@ -2598,7 +2595,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>271.0</v>
+        <v>2105.0</v>
       </c>
       <c r="C22" t="s">
         <v>105</v>
@@ -2607,10 +2604,10 @@
         <v>149</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
         <v>181</v>
@@ -2619,13 +2616,13 @@
         <v>202</v>
       </c>
       <c r="I22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J22" t="n">
-        <v>23.7</v>
+        <v>6.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -2634,22 +2631,22 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="O22" t="n">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
       <c r="P22" t="n">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="R22" t="n">
         <v>8.0</v>
       </c>
       <c r="S22" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="T22" t="n">
         <v>0.0</v>
@@ -2661,16 +2658,16 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>69.0</v>
+        <v>22.0</v>
       </c>
       <c r="X22" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>35.7</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="23">
@@ -2678,16 +2675,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>690.0</v>
+        <v>274.0</v>
       </c>
       <c r="C23" t="s">
         <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F23" t="s">
         <v>179</v>
@@ -2699,10 +2696,10 @@
         <v>203</v>
       </c>
       <c r="I23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J23" t="n">
-        <v>11.8</v>
+        <v>24.7</v>
       </c>
       <c r="K23" t="n">
         <v>2.0</v>
@@ -2714,43 +2711,43 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="X23" t="n">
         <v>15.0</v>
       </c>
-      <c r="O23" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>29.0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>60.4</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="24">
@@ -2758,7 +2755,7 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>1623.0</v>
+        <v>697.0</v>
       </c>
       <c r="C24" t="s">
         <v>107</v>
@@ -2767,7 +2764,7 @@
         <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
         <v>179</v>
@@ -2779,10 +2776,10 @@
         <v>204</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="J24" t="n">
-        <v>1.1</v>
+        <v>12.7</v>
       </c>
       <c r="K24" t="n">
         <v>2.0</v>
@@ -2794,22 +2791,22 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.0</v>
+        <v>36.0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="S24" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="T24" t="n">
         <v>0.0</v>
@@ -2821,16 +2818,16 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>12.0</v>
+        <v>75.0</v>
       </c>
       <c r="X24" t="n">
-        <v>4.0</v>
+        <v>30.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>80.0</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="25">
@@ -2838,16 +2835,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>1962.0</v>
+        <v>1639.0</v>
       </c>
       <c r="C25" t="s">
         <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
         <v>179</v>
@@ -2859,10 +2856,10 @@
         <v>205</v>
       </c>
       <c r="I25" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J25" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="K25" t="n">
         <v>2.0</v>
@@ -2874,43 +2871,43 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="O25" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="P25" t="n">
         <v>0.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>33.0</v>
+        <v>1.0</v>
       </c>
       <c r="R25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W25" t="n">
         <v>12.0</v>
       </c>
-      <c r="S25" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>32.0</v>
-      </c>
       <c r="X25" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>66.7</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="26">
@@ -2918,16 +2915,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>2269.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C26" t="s">
         <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -2939,10 +2936,10 @@
         <v>206</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J26" t="n">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="K26" t="n">
         <v>2.0</v>
@@ -2954,19 +2951,19 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="O26" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.0</v>
+        <v>35.0</v>
       </c>
       <c r="R26" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="S26" t="n">
         <v>12.0</v>
@@ -2981,16 +2978,16 @@
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>53.0</v>
+        <v>37.0</v>
       </c>
       <c r="X26" t="n">
-        <v>29.0</v>
+        <v>16.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>60.4</v>
+        <v>69.6</v>
       </c>
     </row>
     <row r="27">
@@ -2998,19 +2995,19 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>543.0</v>
+        <v>2291.0</v>
       </c>
       <c r="C27" t="s">
         <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
         <v>181</v>
@@ -3019,10 +3016,10 @@
         <v>207</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="J27" t="n">
-        <v>15.0</v>
+        <v>10.5</v>
       </c>
       <c r="K27" t="n">
         <v>2.0</v>
@@ -3034,22 +3031,22 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="O27" t="n">
-        <v>26.0</v>
+        <v>4.0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.0</v>
+        <v>1.0</v>
       </c>
       <c r="R27" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="S27" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="T27" t="n">
         <v>0.0</v>
@@ -3061,16 +3058,16 @@
         <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>71.0</v>
+        <v>59.0</v>
       </c>
       <c r="X27" t="n">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
       <c r="Y27" t="n">
         <v>20.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>53.5</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="28">
@@ -3078,7 +3075,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>591.0</v>
+        <v>548.0</v>
       </c>
       <c r="C28" t="s">
         <v>111</v>
@@ -3087,7 +3084,7 @@
         <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F28" t="s">
         <v>180</v>
@@ -3099,10 +3096,10 @@
         <v>208</v>
       </c>
       <c r="I28" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J28" t="n">
-        <v>8.1</v>
+        <v>15.5</v>
       </c>
       <c r="K28" t="n">
         <v>2.0</v>
@@ -3114,22 +3111,22 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
       <c r="O28" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.0</v>
+        <v>45.0</v>
       </c>
       <c r="R28" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="S28" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="T28" t="n">
         <v>0.0</v>
@@ -3141,16 +3138,16 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>19.0</v>
+        <v>73.0</v>
       </c>
       <c r="X28" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>41.2</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="29">
@@ -3158,7 +3155,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1255.0</v>
+        <v>596.0</v>
       </c>
       <c r="C29" t="s">
         <v>112</v>
@@ -3167,7 +3164,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
         <v>180</v>
@@ -3179,10 +3176,10 @@
         <v>209</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J29" t="n">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="K29" t="n">
         <v>2.0</v>
@@ -3194,43 +3191,43 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="O29" t="n">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="P29" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="S29" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="X29" t="n">
         <v>7.0</v>
       </c>
-      <c r="T29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>6.0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>50.0</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="30">
@@ -3238,16 +3235,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1750.0</v>
+        <v>1264.0</v>
       </c>
       <c r="C30" t="s">
         <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
         <v>180</v>
@@ -3259,58 +3256,58 @@
         <v>210</v>
       </c>
       <c r="I30" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="J30" t="n">
-        <v>21.2</v>
+        <v>6.5</v>
       </c>
       <c r="K30" t="n">
         <v>2.0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O30" t="n">
         <v>32.0</v>
       </c>
-      <c r="O30" t="n">
-        <v>35.0</v>
-      </c>
       <c r="P30" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="R30" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="S30" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V30" t="n">
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>54.0</v>
+        <v>43.0</v>
       </c>
       <c r="X30" t="n">
-        <v>69.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>63.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>52.3</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="31">
@@ -3318,16 +3315,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1781.0</v>
+        <v>1400.0</v>
       </c>
       <c r="C31" t="s">
         <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F31" t="s">
         <v>180</v>
@@ -3339,10 +3336,10 @@
         <v>211</v>
       </c>
       <c r="I31" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="J31" t="n">
-        <v>11.1</v>
+        <v>26.7</v>
       </c>
       <c r="K31" t="n">
         <v>2.0</v>
@@ -3354,25 +3351,25 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="O31" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="S31" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U31" t="n">
         <v>1.0</v>
@@ -3381,16 +3378,16 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>65.0</v>
+        <v>35.0</v>
       </c>
       <c r="X31" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>30.0</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="32">
@@ -3398,19 +3395,19 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>199.0</v>
+        <v>1798.0</v>
       </c>
       <c r="C32" t="s">
         <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G32" t="s">
         <v>181</v>
@@ -3419,13 +3416,13 @@
         <v>212</v>
       </c>
       <c r="I32" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J32" t="n">
-        <v>17.4</v>
+        <v>11.3</v>
       </c>
       <c r="K32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
@@ -3434,43 +3431,43 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>30.0</v>
+        <v>19.0</v>
       </c>
       <c r="O32" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="P32" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="T32" t="n">
         <v>1.0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V32" t="n">
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>45.0</v>
+        <v>65.0</v>
       </c>
       <c r="X32" t="n">
         <v>7.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>20.6</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="33">
@@ -3478,16 +3475,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1543.0</v>
+        <v>202.0</v>
       </c>
       <c r="C33" t="s">
         <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F33" t="s">
         <v>179</v>
@@ -3499,10 +3496,10 @@
         <v>213</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J33" t="n">
-        <v>10.0</v>
+        <v>17.9</v>
       </c>
       <c r="K33" t="n">
         <v>1.0</v>
@@ -3514,25 +3511,25 @@
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.0</v>
+        <v>33.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U33" t="n">
         <v>0.0</v>
@@ -3541,16 +3538,16 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>13.0</v>
+        <v>46.0</v>
       </c>
       <c r="X33" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.0</v>
+        <v>31.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>75.0</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="34">
@@ -3558,19 +3555,19 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>8.0</v>
+        <v>1556.0</v>
       </c>
       <c r="C34" t="s">
         <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G34" t="s">
         <v>181</v>
@@ -3579,10 +3576,10 @@
         <v>214</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="J34" t="n">
-        <v>9.9</v>
+        <v>11.0</v>
       </c>
       <c r="K34" t="n">
         <v>1.0</v>
@@ -3594,43 +3591,43 @@
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="O34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W34" t="n">
         <v>13.0</v>
       </c>
-      <c r="P34" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S34" t="n">
+      <c r="X34" t="n">
         <v>3.0</v>
       </c>
-      <c r="T34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>15.0</v>
-      </c>
       <c r="Y34" t="n">
-        <v>27.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>35.7</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="35">
@@ -3638,16 +3635,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="C35" t="s">
         <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -3659,40 +3656,40 @@
         <v>215</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J35" t="n">
-        <v>4.4</v>
+        <v>10.8</v>
       </c>
       <c r="K35" t="n">
         <v>1.0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M35" t="n">
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="O35" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P35" t="n">
         <v>5.0</v>
       </c>
-      <c r="P35" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U35" t="n">
         <v>0.0</v>
@@ -3701,16 +3698,16 @@
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>24.0</v>
+        <v>37.0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>10.0</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="36">
@@ -3718,16 +3715,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>98.0</v>
+        <v>18.0</v>
       </c>
       <c r="C36" t="s">
         <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F36" t="s">
         <v>180</v>
@@ -3739,58 +3736,58 @@
         <v>216</v>
       </c>
       <c r="I36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J36" t="n">
-        <v>7.7</v>
+        <v>4.9</v>
       </c>
       <c r="K36" t="n">
         <v>1.0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M36" t="n">
         <v>0.0</v>
       </c>
       <c r="N36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>9.0</v>
       </c>
-      <c r="O36" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Z36" t="n">
-        <v>60.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="37">
@@ -3798,7 +3795,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>666.0</v>
+        <v>100.0</v>
       </c>
       <c r="C37" t="s">
         <v>120</v>
@@ -3807,7 +3804,7 @@
         <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -3819,10 +3816,10 @@
         <v>217</v>
       </c>
       <c r="I37" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="J37" t="n">
-        <v>6.0</v>
+        <v>8.2</v>
       </c>
       <c r="K37" t="n">
         <v>1.0</v>
@@ -3834,7 +3831,7 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="O37" t="n">
         <v>2.0</v>
@@ -3843,13 +3840,13 @@
         <v>0.0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="T37" t="n">
         <v>0.0</v>
@@ -3861,16 +3858,16 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>4.0</v>
       </c>
-      <c r="X37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Z37" t="n">
-        <v>33.3</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="38">
@@ -3878,16 +3875,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1259.0</v>
+        <v>673.0</v>
       </c>
       <c r="C38" t="s">
         <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F38" t="s">
         <v>180</v>
@@ -3902,7 +3899,7 @@
         <v>242</v>
       </c>
       <c r="J38" t="n">
-        <v>7.7</v>
+        <v>6.0</v>
       </c>
       <c r="K38" t="n">
         <v>1.0</v>
@@ -3914,22 +3911,22 @@
         <v>0.0</v>
       </c>
       <c r="N38" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="O38" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="P38" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q38" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="R38" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="T38" t="n">
         <v>0.0</v>
@@ -3941,16 +3938,16 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
-        <v>37.0</v>
+        <v>4.0</v>
       </c>
       <c r="X38" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y38" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z38" t="n">
-        <v>56.5</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="39">
@@ -3958,16 +3955,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1388.0</v>
+        <v>1268.0</v>
       </c>
       <c r="C39" t="s">
         <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
         <v>180</v>
@@ -3979,10 +3976,10 @@
         <v>219</v>
       </c>
       <c r="I39" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J39" t="n">
-        <v>25.7</v>
+        <v>8.0</v>
       </c>
       <c r="K39" t="n">
         <v>1.0</v>
@@ -3994,43 +3991,43 @@
         <v>0.0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="O39" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="T39" t="n">
         <v>0.0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V39" t="n">
         <v>0.0</v>
       </c>
       <c r="W39" t="n">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="X39" t="n">
-        <v>10.0</v>
+        <v>26.0</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="Z39" t="n">
-        <v>90.9</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="40">
@@ -4038,7 +4035,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>2774.0</v>
+        <v>2799.0</v>
       </c>
       <c r="C40" t="s">
         <v>123</v>
@@ -4059,10 +4056,10 @@
         <v>220</v>
       </c>
       <c r="I40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J40" t="n">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="K40" t="n">
         <v>1.0</v>
@@ -4089,7 +4086,7 @@
         <v>11.0</v>
       </c>
       <c r="S40" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T40" t="n">
         <v>0.0</v>
@@ -4104,13 +4101,13 @@
         <v>34.0</v>
       </c>
       <c r="X40" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z40" t="n">
-        <v>57.1</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="41">
@@ -4118,7 +4115,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>269.0</v>
+        <v>272.0</v>
       </c>
       <c r="C41" t="s">
         <v>124</v>
@@ -4139,10 +4136,10 @@
         <v>221</v>
       </c>
       <c r="I41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="K41" t="n">
         <v>0.0</v>
@@ -4157,40 +4154,40 @@
         <v>5.0</v>
       </c>
       <c r="O41" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="P41" t="n">
         <v>1.0</v>
       </c>
       <c r="Q41" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="X41" t="n">
         <v>4.0</v>
       </c>
-      <c r="T41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>30.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="42">
@@ -4198,7 +4195,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>321.0</v>
+        <v>324.0</v>
       </c>
       <c r="C42" t="s">
         <v>125</v>
@@ -4278,7 +4275,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>465.0</v>
+        <v>469.0</v>
       </c>
       <c r="C43" t="s">
         <v>126</v>
@@ -4358,7 +4355,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>586.0</v>
+        <v>591.0</v>
       </c>
       <c r="C44" t="s">
         <v>127</v>
@@ -4438,7 +4435,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>801.0</v>
+        <v>808.0</v>
       </c>
       <c r="C45" t="s">
         <v>128</v>
@@ -4462,7 +4459,7 @@
         <v>244</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="K45" t="n">
         <v>0.0</v>
@@ -4477,10 +4474,10 @@
         <v>3.0</v>
       </c>
       <c r="O45" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q45" t="n">
         <v>1.0</v>
@@ -4501,16 +4498,16 @@
         <v>0.0</v>
       </c>
       <c r="W45" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="X45" t="n">
         <v>1.0</v>
       </c>
       <c r="Y45" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z45" t="n">
-        <v>20.0</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="46">
@@ -4518,13 +4515,13 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1195.0</v>
+        <v>1203.0</v>
       </c>
       <c r="C46" t="s">
         <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E46" t="s">
         <v>173</v>
@@ -4598,7 +4595,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1328.0</v>
+        <v>1337.0</v>
       </c>
       <c r="C47" t="s">
         <v>130</v>
@@ -4619,7 +4616,7 @@
         <v>227</v>
       </c>
       <c r="I47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J47" t="n">
         <v>22.0</v>
@@ -4678,7 +4675,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>1591.0</v>
+        <v>1605.0</v>
       </c>
       <c r="C48" t="s">
         <v>131</v>
@@ -4699,7 +4696,7 @@
         <v>228</v>
       </c>
       <c r="I48" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="J48" t="n">
         <v>19.6</v>
@@ -4758,7 +4755,7 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>2377.0</v>
+        <v>2400.0</v>
       </c>
       <c r="C49" t="s">
         <v>132</v>
@@ -4838,7 +4835,7 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C50" t="s">
         <v>133</v>
@@ -4918,7 +4915,7 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>120.0</v>
+        <v>122.0</v>
       </c>
       <c r="C51" t="s">
         <v>134</v>
@@ -4998,7 +4995,7 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>359.0</v>
+        <v>362.0</v>
       </c>
       <c r="C52" t="s">
         <v>135</v>
@@ -5078,13 +5075,13 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>677.0</v>
+        <v>684.0</v>
       </c>
       <c r="C53" t="s">
         <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E53" t="s">
         <v>174</v>
@@ -5158,7 +5155,7 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>919.0</v>
+        <v>926.0</v>
       </c>
       <c r="C54" t="s">
         <v>137</v>
@@ -5238,7 +5235,7 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>1068.0</v>
+        <v>1076.0</v>
       </c>
       <c r="C55" t="s">
         <v>138</v>
@@ -5318,7 +5315,7 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>1535.0</v>
+        <v>1548.0</v>
       </c>
       <c r="C56" t="s">
         <v>139</v>
@@ -5398,7 +5395,7 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>1703.0</v>
+        <v>1719.0</v>
       </c>
       <c r="C57" t="s">
         <v>140</v>
@@ -5419,7 +5416,7 @@
         <v>237</v>
       </c>
       <c r="I57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J57" t="n">
         <v>14.3</v>
@@ -5478,7 +5475,7 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>1706.0</v>
+        <v>1722.0</v>
       </c>
       <c r="C58" t="s">
         <v>141</v>
@@ -5499,7 +5496,7 @@
         <v>238</v>
       </c>
       <c r="I58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J58" t="n">
         <v>0.1</v>
@@ -5558,7 +5555,7 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>1758.0</v>
+        <v>1773.0</v>
       </c>
       <c r="C59" t="s">
         <v>142</v>
@@ -5579,7 +5576,7 @@
         <v>239</v>
       </c>
       <c r="I59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J59" t="n">
         <v>0.1</v>
@@ -5638,7 +5635,7 @@
         <v>83</v>
       </c>
       <c r="B60" t="n">
-        <v>2063.0</v>
+        <v>2084.0</v>
       </c>
       <c r="C60" t="s">
         <v>143</v>
@@ -5659,7 +5656,7 @@
         <v>240</v>
       </c>
       <c r="I60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J60" t="n">
         <v>0.3</v>
@@ -5718,7 +5715,7 @@
         <v>84</v>
       </c>
       <c r="B61" t="n">
-        <v>2386.0</v>
+        <v>2409.0</v>
       </c>
       <c r="C61" t="s">
         <v>144</v>
@@ -5739,7 +5736,7 @@
         <v>241</v>
       </c>
       <c r="I61" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J61" t="n">
         <v>19.9</v>
@@ -5833,90 +5830,90 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" t="s">
         <v>260</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>261</v>
-      </c>
-      <c r="L1" t="s">
-        <v>262</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O1" t="s">
         <v>263</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>264</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>265</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>266</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>267</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>268</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>269</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>270</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>271</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>272</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>273</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>274</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>275</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>276</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>277</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>278</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>279</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>280</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>281</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>282</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="n">
-        <v>271.0</v>
+        <v>274.0</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
         <v>149</v>
@@ -5931,22 +5928,22 @@
         <v>181</v>
       </c>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
         <v>255</v>
       </c>
       <c r="J2" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>23.7</v>
+        <v>24.7</v>
       </c>
       <c r="N2" t="n">
         <v>15.0</v>
@@ -5973,40 +5970,40 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>11.5</v>
+        <v>12.1</v>
       </c>
       <c r="W2" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="X2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.9</v>
+        <v>15.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.0</v>
+        <v>94.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="AD2" t="n">
         <v>0.08</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="AH2" t="n">
         <v>0.49</v>
@@ -6014,13 +6011,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="n">
-        <v>1725.0</v>
+        <v>1741.0</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>155</v>
@@ -6035,10 +6032,10 @@
         <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J3" t="n">
         <v>29.0</v>
@@ -6118,16 +6115,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
-        <v>1750.0</v>
+        <v>1766.0</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
         <v>175</v>
@@ -6139,22 +6136,22 @@
         <v>181</v>
       </c>
       <c r="H4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I4" t="s">
         <v>244</v>
       </c>
       <c r="J4" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L4" t="e">
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>21.2</v>
+        <v>22.2</v>
       </c>
       <c r="N4" t="n">
         <v>8.0</v>
@@ -6175,7 +6172,7 @@
         <v>3.0</v>
       </c>
       <c r="T4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U4" t="n">
         <v>1.0</v>
@@ -6184,51 +6181,51 @@
         <v>7.8</v>
       </c>
       <c r="W4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AD4" t="n">
         <v>0.09</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>149</v>
@@ -6243,31 +6240,31 @@
         <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J5" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="K5" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="L5" t="e">
         <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>17.0</v>
+        <v>17.9</v>
       </c>
       <c r="N5" t="n">
         <v>7.0</v>
       </c>
       <c r="O5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q5" t="n">
         <v>7.0</v>
@@ -6285,54 +6282,54 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="W5" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="X5" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>127.0</v>
+        <v>135.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" t="n">
-        <v>199.0</v>
+        <v>202.0</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
         <v>161</v>
@@ -6347,13 +6344,13 @@
         <v>181</v>
       </c>
       <c r="H6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I6" t="s">
         <v>246</v>
       </c>
       <c r="J6" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="K6" t="n">
         <v>18.0</v>
@@ -6362,16 +6359,16 @@
         <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>17.4</v>
+        <v>17.9</v>
       </c>
       <c r="N6" t="n">
         <v>7.0</v>
       </c>
       <c r="O6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P6" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q6" t="n">
         <v>7.0</v>
@@ -6395,37 +6392,37 @@
         <v>8.4</v>
       </c>
       <c r="X6" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.1</v>
+        <v>11.7</v>
       </c>
       <c r="Z6" t="n">
         <v>35.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>184.0</v>
+        <v>188.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="7">
@@ -6433,7 +6430,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="n">
-        <v>971.0</v>
+        <v>978.0</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -6534,55 +6531,55 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B8" t="n">
-        <v>2750.0</v>
+        <v>9.0</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G8" t="s">
         <v>181</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="I8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J8" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="K8" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L8" t="e">
-        <v>#N/A</v>
+        <v>11.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>968.0</v>
       </c>
       <c r="M8" t="n">
-        <v>23.7</v>
+        <v>10.8</v>
       </c>
       <c r="N8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="O8" t="n">
         <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="R8" t="n">
         <v>0.0</v>
@@ -6591,99 +6588,99 @@
         <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="X8" t="n">
         <v>2.0</v>
       </c>
-      <c r="V8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.1</v>
-      </c>
       <c r="Y8" t="n">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z8" t="n">
         <v>27.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.0</v>
+        <v>18.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>23.0</v>
+        <v>83.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="AD8" t="n">
         <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.06</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n">
-        <v>8.0</v>
+        <v>880.0</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
         <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G9" t="s">
         <v>181</v>
       </c>
       <c r="H9" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I9" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="J9" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="K9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>893.0</v>
+        <v>31.0</v>
+      </c>
+      <c r="L9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M9" t="n">
-        <v>9.9</v>
+        <v>29.8</v>
       </c>
       <c r="N9" t="n">
         <v>4.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P9" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q9" t="n">
         <v>4.0</v>
@@ -6695,99 +6692,99 @@
         <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>3.6</v>
+        <v>5.0</v>
       </c>
       <c r="W9" t="n">
-        <v>3.6</v>
+        <v>5.0</v>
       </c>
       <c r="X9" t="n">
-        <v>2.0</v>
+        <v>3.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.0</v>
+        <v>53.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>17.0</v>
+        <v>246.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>77.0</v>
+        <v>86.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0</v>
+        <v>0.13</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>1756.0</v>
+        <v>2775.0</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G10" t="s">
         <v>181</v>
       </c>
       <c r="H10" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="I10" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="J10" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="K10" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L10" t="e">
         <v>#N/A</v>
       </c>
       <c r="M10" t="n">
-        <v>22.3</v>
+        <v>23.7</v>
       </c>
       <c r="N10" t="n">
         <v>4.0</v>
       </c>
       <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P10" t="n">
         <v>4.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8.0</v>
       </c>
       <c r="Q10" t="n">
         <v>4.0</v>
@@ -6799,102 +6796,102 @@
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="V10" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="X10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y10" t="n">
         <v>2.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>8.4</v>
-      </c>
       <c r="Z10" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>94.0</v>
+        <v>107.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>143.0</v>
+        <v>23.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>873.0</v>
+        <v>1771.0</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
         <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G11" t="s">
         <v>181</v>
       </c>
       <c r="H11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J11" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="K11" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="L11" t="e">
         <v>#N/A</v>
       </c>
       <c r="M11" t="n">
-        <v>28.8</v>
+        <v>22.8</v>
       </c>
       <c r="N11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O11" t="n">
         <v>4.0</v>
       </c>
       <c r="P11" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="R11" t="n">
         <v>0.0</v>
@@ -6903,49 +6900,49 @@
         <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="W11" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="X11" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.0</v>
+        <v>8.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>50.0</v>
+        <v>26.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>237.0</v>
+        <v>95.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>83.0</v>
+        <v>144.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="12">
@@ -6953,7 +6950,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>2616.0</v>
+        <v>2640.0</v>
       </c>
       <c r="C12" t="s">
         <v>90</v>
@@ -7057,7 +7054,7 @@
         <v>84</v>
       </c>
       <c r="B13" t="n">
-        <v>2386.0</v>
+        <v>2409.0</v>
       </c>
       <c r="C13" t="s">
         <v>144</v>
@@ -7078,7 +7075,7 @@
         <v>241</v>
       </c>
       <c r="I13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J13" t="n">
         <v>22.0</v>
@@ -7158,13 +7155,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="n">
-        <v>480.0</v>
+        <v>485.0</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
         <v>150</v>
@@ -7179,10 +7176,10 @@
         <v>181</v>
       </c>
       <c r="H14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J14" t="n">
         <v>28.0</v>
@@ -7262,13 +7259,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>553.0</v>
+        <v>558.0</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
         <v>145</v>
@@ -7283,22 +7280,22 @@
         <v>181</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J15" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K15" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
       <c r="M15" t="n">
-        <v>20.3</v>
+        <v>21.2</v>
       </c>
       <c r="N15" t="n">
         <v>2.0</v>
@@ -7331,7 +7328,7 @@
         <v>0.7</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y15" t="n">
         <v>0.8</v>
@@ -7346,19 +7343,19 @@
         <v>3.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD15" t="n">
         <v>0.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH15" t="n">
         <v>0.03</v>
@@ -7366,13 +7363,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="n">
-        <v>1255.0</v>
+        <v>1264.0</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
         <v>149</v>
@@ -7387,22 +7384,22 @@
         <v>181</v>
       </c>
       <c r="H16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I16" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="J16" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K16" t="n">
         <v>1.0</v>
       </c>
       <c r="L16" t="n">
-        <v>567.0</v>
+        <v>582.0</v>
       </c>
       <c r="M16" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="N16" t="n">
         <v>2.0</v>
@@ -7435,37 +7432,37 @@
         <v>2.0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.9</v>
+        <v>3.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="17">
@@ -7473,7 +7470,7 @@
         <v>64</v>
       </c>
       <c r="B17" t="n">
-        <v>269.0</v>
+        <v>272.0</v>
       </c>
       <c r="C17" t="s">
         <v>124</v>
@@ -7494,19 +7491,19 @@
         <v>221</v>
       </c>
       <c r="I17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J17" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L17" t="n">
-        <v>279.0</v>
+        <v>352.0</v>
       </c>
       <c r="M17" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="N17" t="n">
         <v>1.0</v>
@@ -7533,43 +7530,43 @@
         <v>1.0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="W17" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
@@ -7577,7 +7574,7 @@
         <v>65</v>
       </c>
       <c r="B18" t="n">
-        <v>321.0</v>
+        <v>324.0</v>
       </c>
       <c r="C18" t="s">
         <v>125</v>
@@ -7681,7 +7678,7 @@
         <v>68</v>
       </c>
       <c r="B19" t="n">
-        <v>801.0</v>
+        <v>808.0</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
@@ -7705,16 +7702,16 @@
         <v>244</v>
       </c>
       <c r="J19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L19" t="n">
-        <v>139.0</v>
+        <v>182.0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="N19" t="n">
         <v>1.0</v>
@@ -7741,43 +7738,43 @@
         <v>0.0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="W19" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X19" t="n">
         <v>0.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AD19" t="n">
         <v>0.0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="20">
@@ -7785,13 +7782,13 @@
         <v>69</v>
       </c>
       <c r="B20" t="n">
-        <v>1195.0</v>
+        <v>1203.0</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
         <v>173</v>
@@ -7889,7 +7886,7 @@
         <v>71</v>
       </c>
       <c r="B21" t="n">
-        <v>1591.0</v>
+        <v>1605.0</v>
       </c>
       <c r="C21" t="s">
         <v>131</v>
@@ -7910,7 +7907,7 @@
         <v>228</v>
       </c>
       <c r="I21" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="J21" t="n">
         <v>23.0</v>
@@ -7990,19 +7987,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B22" t="n">
-        <v>2389.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F22" t="s">
         <v>179</v>
@@ -8011,126 +8008,126 @@
         <v>181</v>
       </c>
       <c r="H22" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="I22" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="J22" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="K22" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="L22" t="e">
-        <v>#N/A</v>
+        <v>7.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>636.0</v>
       </c>
       <c r="M22" t="n">
-        <v>23.0</v>
+        <v>7.1</v>
       </c>
       <c r="N22" t="n">
         <v>1.0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T22" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7.0</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="X22" t="n">
-        <v>1.0</v>
+        <v>1.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>139.0</v>
+        <v>22.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>29.0</v>
+        <v>67.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>520.0</v>
+        <v>2412.0</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
         <v>181</v>
       </c>
       <c r="H23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J23" t="n">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
       <c r="K23" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="L23" t="e">
         <v>#N/A</v>
       </c>
       <c r="M23" t="n">
-        <v>28.1</v>
+        <v>24.0</v>
       </c>
       <c r="N23" t="n">
         <v>1.0</v>
@@ -8151,31 +8148,31 @@
         <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="W23" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="X23" t="n">
-        <v>1.1</v>
+        <v>1.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>10.0</v>
+        <v>35.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>190.0</v>
+        <v>142.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>55.0</v>
+        <v>29.0</v>
       </c>
       <c r="AC23" t="n">
         <v>0.04</v>
@@ -8184,33 +8181,33 @@
         <v>0.04</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="AF23" t="n">
         <v>0.04</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
-        <v>543.0</v>
+        <v>525.0</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F24" t="s">
         <v>180</v>
@@ -8219,31 +8216,31 @@
         <v>181</v>
       </c>
       <c r="H24" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="I24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J24" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="K24" t="n">
-        <v>17.0</v>
+        <v>31.0</v>
       </c>
       <c r="L24" t="e">
         <v>#N/A</v>
       </c>
       <c r="M24" t="n">
-        <v>15.0</v>
+        <v>28.8</v>
       </c>
       <c r="N24" t="n">
         <v>1.0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q24" t="n">
         <v>1.0</v>
@@ -8255,66 +8252,66 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="W24" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>26.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>52.0</v>
+        <v>192.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>61.0</v>
+        <v>55.0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.0</v>
+        <v>0.03</v>
       </c>
       <c r="AE24" t="n">
         <v>0.07</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
       <c r="AG24" t="n">
         <v>0.07</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B25" t="n">
-        <v>1259.0</v>
+        <v>548.0</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F25" t="s">
         <v>180</v>
@@ -8323,22 +8320,22 @@
         <v>181</v>
       </c>
       <c r="H25" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="I25" t="s">
         <v>242</v>
       </c>
       <c r="J25" t="n">
-        <v>12.0</v>
+        <v>27.0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>696.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="L25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M25" t="n">
-        <v>7.7</v>
+        <v>15.5</v>
       </c>
       <c r="N25" t="n">
         <v>1.0</v>
@@ -8356,69 +8353,69 @@
         <v>0.0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="W25" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="X25" t="n">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>23.0</v>
+        <v>54.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>48.0</v>
+        <v>62.0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="AD25" t="n">
         <v>0.0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B26" t="n">
-        <v>1781.0</v>
+        <v>1268.0</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F26" t="s">
         <v>180</v>
@@ -8427,138 +8424,138 @@
         <v>181</v>
       </c>
       <c r="H26" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I26" t="s">
         <v>242</v>
       </c>
       <c r="J26" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>718.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AA26" t="n">
         <v>24.0</v>
       </c>
-      <c r="K26" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M26" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>58.0</v>
-      </c>
       <c r="AB26" t="n">
-        <v>30.0</v>
+        <v>48.0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="AD26" t="n">
         <v>0.0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>429.0</v>
+        <v>1798.0</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E27" t="s">
         <v>174</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
         <v>181</v>
       </c>
       <c r="H27" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J27" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="K27" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>941.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="L27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M27" t="n">
-        <v>10.5</v>
+        <v>11.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P27" t="n">
         <v>1.0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R27" t="n">
         <v>0.0</v>
@@ -8567,66 +8564,66 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="W27" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="X27" t="n">
         <v>0.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>70.0</v>
+        <v>58.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.07</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B28" t="n">
-        <v>465.0</v>
+        <v>433.0</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -8635,31 +8632,31 @@
         <v>181</v>
       </c>
       <c r="H28" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="I28" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="J28" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="L28" t="n">
-        <v>8.0</v>
+        <v>958.0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1</v>
+        <v>10.6</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q28" t="n">
         <v>0.0</v>
@@ -8671,66 +8668,66 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="AC28" t="n">
         <v>0.0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AF28" t="n">
         <v>0.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" t="n">
-        <v>586.0</v>
+        <v>469.0</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
         <v>179</v>
@@ -8739,22 +8736,22 @@
         <v>181</v>
       </c>
       <c r="H29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I29" t="s">
         <v>253</v>
       </c>
       <c r="J29" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
       </c>
       <c r="L29" t="n">
-        <v>73.0</v>
+        <v>8.0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -8781,25 +8778,25 @@
         <v>0.0</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
@@ -8817,24 +8814,24 @@
         <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.13</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B30" t="n">
-        <v>690.0</v>
+        <v>591.0</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F30" t="s">
         <v>179</v>
@@ -8843,31 +8840,31 @@
         <v>181</v>
       </c>
       <c r="H30" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J30" t="n">
-        <v>24.0</v>
+        <v>4.0</v>
       </c>
       <c r="K30" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L30" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>73.0</v>
       </c>
       <c r="M30" t="n">
-        <v>11.8</v>
+        <v>0.8</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" t="n">
         <v>0.0</v>
@@ -8879,66 +8876,66 @@
         <v>0.0</v>
       </c>
       <c r="T30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z30" t="n">
         <v>2.0</v>
       </c>
-      <c r="U30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>39.0</v>
-      </c>
       <c r="AA30" t="n">
-        <v>66.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB30" t="n">
-        <v>83.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC30" t="n">
         <v>0.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AF30" t="n">
         <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B31" t="n">
-        <v>709.0</v>
+        <v>697.0</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F31" t="s">
         <v>179</v>
@@ -8947,31 +8944,31 @@
         <v>181</v>
       </c>
       <c r="H31" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J31" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>158.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="L31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M31" t="n">
-        <v>1.8</v>
+        <v>12.7</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q31" t="n">
         <v>0.0</v>
@@ -8983,66 +8980,66 @@
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="U31" t="n">
         <v>0.0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>4.0</v>
+        <v>42.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.0</v>
+        <v>73.0</v>
       </c>
       <c r="AB31" t="n">
-        <v>11.0</v>
+        <v>88.0</v>
       </c>
       <c r="AC31" t="n">
         <v>0.0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AF31" t="n">
         <v>0.0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" t="n">
-        <v>1298.0</v>
+        <v>716.0</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F32" t="s">
         <v>179</v>
@@ -9051,31 +9048,31 @@
         <v>181</v>
       </c>
       <c r="H32" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I32" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="J32" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="K32" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L32" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>163.0</v>
       </c>
       <c r="M32" t="n">
-        <v>12.7</v>
+        <v>1.8</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" t="n">
         <v>0.0</v>
@@ -9087,66 +9084,66 @@
         <v>0.0</v>
       </c>
       <c r="T32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z32" t="n">
         <v>4.0</v>
       </c>
-      <c r="U32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z32" t="n">
+      <c r="AA32" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB32" t="n">
         <v>11.0</v>
       </c>
-      <c r="AA32" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>16.0</v>
-      </c>
       <c r="AC32" t="n">
         <v>0.0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AF32" t="n">
         <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>1328.0</v>
+        <v>1307.0</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
         <v>179</v>
@@ -9155,31 +9152,31 @@
         <v>181</v>
       </c>
       <c r="H33" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="I33" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J33" t="n">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="K33" t="n">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="L33" t="e">
         <v>#N/A</v>
       </c>
       <c r="M33" t="n">
-        <v>22.0</v>
+        <v>13.7</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
@@ -9191,66 +9188,66 @@
         <v>0.0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0</v>
+        <v>1.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0</v>
+        <v>1.7</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.0</v>
+        <v>0.07</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0</v>
+        <v>0.07</v>
       </c>
       <c r="AF33" t="n">
         <v>0.0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0</v>
+        <v>0.07</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B34" t="n">
-        <v>1526.0</v>
+        <v>1337.0</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -9259,22 +9256,22 @@
         <v>181</v>
       </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="J34" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="K34" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="L34" t="e">
         <v>#N/A</v>
       </c>
       <c r="M34" t="n">
-        <v>13.9</v>
+        <v>22.0</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -9295,31 +9292,31 @@
         <v>0.0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="U34" t="n">
         <v>0.0</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA34" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" t="n">
         <v>0.0</v>
@@ -9337,24 +9334,24 @@
         <v>0.0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B35" t="n">
-        <v>1543.0</v>
+        <v>1539.0</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F35" t="s">
         <v>179</v>
@@ -9363,68 +9360,68 @@
         <v>181</v>
       </c>
       <c r="H35" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M35" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AB35" t="n">
         <v>10.0</v>
       </c>
-      <c r="K35" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>900.0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AC35" t="n">
         <v>0.0</v>
       </c>
@@ -9441,24 +9438,24 @@
         <v>0.0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>1623.0</v>
+        <v>1556.0</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F36" t="s">
         <v>179</v>
@@ -9467,31 +9464,31 @@
         <v>181</v>
       </c>
       <c r="H36" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="J36" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="L36" t="n">
-        <v>102.0</v>
+        <v>990.0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>11.0</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" t="n">
         <v>0.0</v>
@@ -9503,49 +9500,49 @@
         <v>0.0</v>
       </c>
       <c r="T36" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U36" t="n">
         <v>0.0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB36" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" t="n">
         <v>0.0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.88</v>
+        <v>0.0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.88</v>
+        <v>0.0</v>
       </c>
       <c r="AF36" t="n">
         <v>0.0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.88</v>
+        <v>0.0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.07</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -9553,16 +9550,16 @@
         <v>48</v>
       </c>
       <c r="B37" t="n">
-        <v>1962.0</v>
+        <v>1639.0</v>
       </c>
       <c r="C37" t="s">
         <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F37" t="s">
         <v>179</v>
@@ -9574,28 +9571,28 @@
         <v>205</v>
       </c>
       <c r="I37" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J37" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="K37" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="L37" t="n">
-        <v>551.0</v>
+        <v>102.0</v>
       </c>
       <c r="M37" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q37" t="n">
         <v>0.0</v>
@@ -9613,40 +9610,40 @@
         <v>0.0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="X37" t="n">
-        <v>1.2</v>
+        <v>1.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="Z37" t="n">
-        <v>28.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB37" t="n">
-        <v>61.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC37" t="n">
         <v>0.0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.0</v>
+        <v>0.88</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.0</v>
+        <v>0.88</v>
       </c>
       <c r="AF37" t="n">
         <v>0.0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.0</v>
+        <v>0.88</v>
       </c>
       <c r="AH37" t="n">
         <v>0.07</v>
@@ -9654,16 +9651,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>2269.0</v>
+        <v>2291.0</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
         <v>173</v>
@@ -9675,22 +9672,22 @@
         <v>181</v>
       </c>
       <c r="H38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I38" t="s">
         <v>254</v>
       </c>
       <c r="J38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K38" t="n">
         <v>10.0</v>
       </c>
-      <c r="K38" t="n">
-        <v>9.0</v>
-      </c>
       <c r="L38" t="n">
-        <v>855.0</v>
+        <v>945.0</v>
       </c>
       <c r="M38" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -9729,31 +9726,31 @@
         <v>0.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA38" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="AB38" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AC38" t="n">
         <v>0.0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AF38" t="n">
         <v>0.0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="39">
@@ -9761,7 +9758,7 @@
         <v>72</v>
       </c>
       <c r="B39" t="n">
-        <v>2377.0</v>
+        <v>2400.0</v>
       </c>
       <c r="C39" t="s">
         <v>132</v>
@@ -9785,13 +9782,13 @@
         <v>244</v>
       </c>
       <c r="J39" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K39" t="n">
         <v>6.0</v>
       </c>
       <c r="L39" t="n">
-        <v>528.0</v>
+        <v>533.0</v>
       </c>
       <c r="M39" t="n">
         <v>5.9</v>
@@ -9833,10 +9830,10 @@
         <v>1.2</v>
       </c>
       <c r="Z39" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA39" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB39" t="n">
         <v>48.0</v>
@@ -9862,13 +9859,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
         <v>147</v>
@@ -9883,22 +9880,22 @@
         <v>181</v>
       </c>
       <c r="H40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J40" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K40" t="n">
         <v>3.0</v>
       </c>
       <c r="L40" t="n">
-        <v>398.0</v>
+        <v>443.0</v>
       </c>
       <c r="M40" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -9925,43 +9922,43 @@
         <v>1.0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="W40" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="X40" t="n">
         <v>0.9</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z40" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA40" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB40" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="AC40" t="n">
         <v>0.0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="AF40" t="n">
         <v>0.0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="41">
@@ -9969,7 +9966,7 @@
         <v>73</v>
       </c>
       <c r="B41" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C41" t="s">
         <v>133</v>
@@ -10070,13 +10067,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" t="n">
-        <v>98.0</v>
+        <v>100.0</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
         <v>149</v>
@@ -10091,22 +10088,22 @@
         <v>181</v>
       </c>
       <c r="H42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J42" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K42" t="n">
         <v>10.0</v>
       </c>
-      <c r="K42" t="n">
-        <v>9.0</v>
-      </c>
       <c r="L42" t="n">
-        <v>691.0</v>
+        <v>736.0</v>
       </c>
       <c r="M42" t="n">
-        <v>7.7</v>
+        <v>8.2</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -10148,25 +10145,25 @@
         <v>12.0</v>
       </c>
       <c r="AA42" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB42" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="AC42" t="n">
         <v>0.0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AF42" t="n">
         <v>0.0</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AH42" t="n">
         <v>0.01</v>
@@ -10177,7 +10174,7 @@
         <v>74</v>
       </c>
       <c r="B43" t="n">
-        <v>120.0</v>
+        <v>122.0</v>
       </c>
       <c r="C43" t="s">
         <v>134</v>
@@ -10281,7 +10278,7 @@
         <v>75</v>
       </c>
       <c r="B44" t="n">
-        <v>359.0</v>
+        <v>362.0</v>
       </c>
       <c r="C44" t="s">
         <v>135</v>
@@ -10382,13 +10379,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="n">
-        <v>591.0</v>
+        <v>596.0</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
         <v>149</v>
@@ -10403,22 +10400,22 @@
         <v>181</v>
       </c>
       <c r="H45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I45" t="s">
         <v>254</v>
       </c>
       <c r="J45" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K45" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L45" t="n">
-        <v>729.0</v>
+        <v>819.0</v>
       </c>
       <c r="M45" t="n">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -10445,25 +10442,25 @@
         <v>0.0</v>
       </c>
       <c r="V45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X45" t="n">
         <v>0.6</v>
       </c>
-      <c r="W45" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Y45" t="n">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="Z45" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA45" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="AB45" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="AC45" t="n">
         <v>0.0</v>
@@ -10481,18 +10478,18 @@
         <v>0.0</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" t="n">
-        <v>666.0</v>
+        <v>673.0</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
         <v>149</v>
@@ -10507,7 +10504,7 @@
         <v>181</v>
       </c>
       <c r="H46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I46" t="s">
         <v>242</v>
@@ -10593,13 +10590,13 @@
         <v>76</v>
       </c>
       <c r="B47" t="n">
-        <v>677.0</v>
+        <v>684.0</v>
       </c>
       <c r="C47" t="s">
         <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s">
         <v>174</v>
@@ -10697,7 +10694,7 @@
         <v>28</v>
       </c>
       <c r="B48" t="n">
-        <v>748.0</v>
+        <v>755.0</v>
       </c>
       <c r="C48" t="s">
         <v>88</v>
@@ -10798,13 +10795,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49" t="n">
-        <v>772.0</v>
+        <v>779.0</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
         <v>152</v>
@@ -10819,7 +10816,7 @@
         <v>181</v>
       </c>
       <c r="H49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I49" t="s">
         <v>244</v>
@@ -10905,7 +10902,7 @@
         <v>77</v>
       </c>
       <c r="B50" t="n">
-        <v>919.0</v>
+        <v>926.0</v>
       </c>
       <c r="C50" t="s">
         <v>137</v>
@@ -11009,7 +11006,7 @@
         <v>78</v>
       </c>
       <c r="B51" t="n">
-        <v>1068.0</v>
+        <v>1076.0</v>
       </c>
       <c r="C51" t="s">
         <v>138</v>
@@ -11110,13 +11107,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>1388.0</v>
+        <v>1400.0</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
         <v>149</v>
@@ -11131,22 +11128,22 @@
         <v>181</v>
       </c>
       <c r="H52" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I52" t="s">
         <v>254</v>
       </c>
       <c r="J52" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K52" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="L52" t="e">
         <v>#N/A</v>
       </c>
       <c r="M52" t="n">
-        <v>25.7</v>
+        <v>26.7</v>
       </c>
       <c r="N52" t="n">
         <v>0.0</v>
@@ -11167,7 +11164,7 @@
         <v>0.0</v>
       </c>
       <c r="T52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U52" t="n">
         <v>0.0</v>
@@ -11188,7 +11185,7 @@
         <v>0.0</v>
       </c>
       <c r="AA52" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB52" t="n">
         <v>0.0</v>
@@ -11217,7 +11214,7 @@
         <v>79</v>
       </c>
       <c r="B53" t="n">
-        <v>1535.0</v>
+        <v>1548.0</v>
       </c>
       <c r="C53" t="s">
         <v>139</v>
@@ -11321,7 +11318,7 @@
         <v>80</v>
       </c>
       <c r="B54" t="n">
-        <v>1703.0</v>
+        <v>1719.0</v>
       </c>
       <c r="C54" t="s">
         <v>140</v>
@@ -11342,7 +11339,7 @@
         <v>237</v>
       </c>
       <c r="I54" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J54" t="n">
         <v>16.0</v>
@@ -11425,7 +11422,7 @@
         <v>81</v>
       </c>
       <c r="B55" t="n">
-        <v>1706.0</v>
+        <v>1722.0</v>
       </c>
       <c r="C55" t="s">
         <v>141</v>
@@ -11446,7 +11443,7 @@
         <v>238</v>
       </c>
       <c r="I55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J55" t="n">
         <v>1.0</v>
@@ -11529,7 +11526,7 @@
         <v>82</v>
       </c>
       <c r="B56" t="n">
-        <v>1758.0</v>
+        <v>1773.0</v>
       </c>
       <c r="C56" t="s">
         <v>142</v>
@@ -11550,7 +11547,7 @@
         <v>239</v>
       </c>
       <c r="I56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J56" t="n">
         <v>1.0</v>
@@ -11630,13 +11627,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B57" t="n">
-        <v>1983.0</v>
+        <v>2002.0</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
         <v>149</v>
@@ -11651,22 +11648,22 @@
         <v>181</v>
       </c>
       <c r="H57" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J57" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K57" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="L57" t="e">
         <v>#N/A</v>
       </c>
       <c r="M57" t="n">
-        <v>16.4</v>
+        <v>17.4</v>
       </c>
       <c r="N57" t="n">
         <v>0.0</v>
@@ -11687,7 +11684,7 @@
         <v>0.0</v>
       </c>
       <c r="T57" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="U57" t="n">
         <v>0.0</v>
@@ -11705,13 +11702,13 @@
         <v>0.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA57" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="AB57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC57" t="n">
         <v>0.0</v>
@@ -11737,7 +11734,7 @@
         <v>83</v>
       </c>
       <c r="B58" t="n">
-        <v>2063.0</v>
+        <v>2084.0</v>
       </c>
       <c r="C58" t="s">
         <v>143</v>
@@ -11758,7 +11755,7 @@
         <v>240</v>
       </c>
       <c r="I58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J58" t="n">
         <v>1.0</v>
@@ -11838,13 +11835,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59" t="n">
-        <v>2084.0</v>
+        <v>2105.0</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
         <v>149</v>
@@ -11859,10 +11856,10 @@
         <v>181</v>
       </c>
       <c r="H59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I59" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J59" t="n">
         <v>12.0</v>
@@ -11942,13 +11939,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B60" t="n">
-        <v>2395.0</v>
+        <v>2418.0</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
         <v>149</v>
@@ -11963,22 +11960,22 @@
         <v>181</v>
       </c>
       <c r="H60" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I60" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J60" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="K60" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="L60" t="e">
         <v>#N/A</v>
       </c>
       <c r="M60" t="n">
-        <v>18.2</v>
+        <v>19.2</v>
       </c>
       <c r="N60" t="n">
         <v>0.0</v>
@@ -11999,7 +11996,7 @@
         <v>0.0</v>
       </c>
       <c r="T60" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U60" t="n">
         <v>0.0</v>
@@ -12017,13 +12014,13 @@
         <v>2.1</v>
       </c>
       <c r="Z60" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="AA60" t="n">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="AB60" t="n">
-        <v>54.0</v>
+        <v>59.0</v>
       </c>
       <c r="AC60" t="n">
         <v>0.0</v>
@@ -12049,7 +12046,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>2774.0</v>
+        <v>2799.0</v>
       </c>
       <c r="C61" t="s">
         <v>123</v>
@@ -12070,19 +12067,19 @@
         <v>220</v>
       </c>
       <c r="I61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J61" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K61" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L61" t="n">
-        <v>842.0</v>
+        <v>932.0</v>
       </c>
       <c r="M61" t="n">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="N61" t="n">
         <v>0.0</v>
@@ -12124,7 +12121,7 @@
         <v>1.0</v>
       </c>
       <c r="AA61" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="AB61" t="n">
         <v>2.0</v>
